--- a/MyTargetlist.xlsx
+++ b/MyTargetlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fides</t>
   </si>
   <si>
     <t xml:space="preserve">LMi</t>
@@ -140,16 +137,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[hh]:mm:ss.00"/>
-    <numFmt numFmtId="166" formatCode="[hh]:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -171,6 +167,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,24 +212,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -245,15 +234,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -368,10 +348,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A19 A23:A33"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1082,11 +1062,11 @@
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3" t="n">
-        <v>0.257277777777778</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>1.10212962962963</v>
+      <c r="B28" s="1" t="n">
+        <v>9.4692</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>36.2958</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
@@ -1109,10 +1089,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>9.4692</v>
+        <v>2.5754</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>36.2958</v>
+        <v>61.5576</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
@@ -1135,10 +1115,10 @@
         <v>34</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>2.5754</v>
+        <v>1.9366</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>61.5576</v>
+        <v>25.0281</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
@@ -1161,10 +1141,10 @@
         <v>35</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>1.9366</v>
+        <v>3.434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>25.0281</v>
+        <v>49.9495</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
@@ -1187,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>3.434</v>
+        <v>8.8069</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>49.9495</v>
+        <v>54.9884</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>12</v>
@@ -1205,32 +1185,6 @@
         <v>20</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>8.8069</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>54.9884</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H33" s="2" t="n">
         <v>100</v>
       </c>
     </row>

--- a/MyTargetlist.xlsx
+++ b/MyTargetlist.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -691,7 +691,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/MyTargetlist.xlsx
+++ b/MyTargetlist.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
